--- a/raw_data/ts_data.xlsx
+++ b/raw_data/ts_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/44- Gutierrez-F et al. Ecology Letters/Community_Stability_TLA/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{7DF2BAF7-279A-46ED-B07A-A808AD482AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{930AF47F-817C-484B-95C9-13CF0D2A30D5}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{7DF2BAF7-279A-46ED-B07A-A808AD482AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156F1FF5-11E0-416E-9E9A-C870DD7CDE39}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C25D13B6-EFD1-4700-B1B8-F2D3295578D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="carapa" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -791,7 +791,7 @@
   <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>

--- a/raw_data/ts_data.xlsx
+++ b/raw_data/ts_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice-my.sharepoint.com/personal/pgutierr_uvm_edu/Documents/Curriculum/02_ Articulos/44- Gutierrez-F et al. Ecology Letters/Community_Stability_TLA/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{7DF2BAF7-279A-46ED-B07A-A808AD482AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{156F1FF5-11E0-416E-9E9A-C870DD7CDE39}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{7DF2BAF7-279A-46ED-B07A-A808AD482AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8BE035A-96D2-48FC-A586-C0E556E4ED1A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C25D13B6-EFD1-4700-B1B8-F2D3295578D7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C25D13B6-EFD1-4700-B1B8-F2D3295578D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="carapa" sheetId="1" r:id="rId1"/>
+    <sheet name="ts" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>Jan97</t>
   </si>
@@ -417,17 +417,28 @@
   </si>
   <si>
     <t>Carapa_Biomass_TS</t>
+  </si>
+  <si>
+    <t>Saltito_Sp_Rich</t>
+  </si>
+  <si>
+    <t>Saltito_Density_TS</t>
+  </si>
+  <si>
+    <t>Saltito_Biomass_TS</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,6 +451,10 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Geneva"/>
     </font>
   </fonts>
   <fills count="2">
@@ -464,16 +479,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -788,1755 +803,2874 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2651712-6447-4D91-A85D-66D5605E047B}">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F120" sqref="F120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="4"/>
-    <col min="2" max="2" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.54296875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.1796875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="15.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>15.666666666666666</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="1">
         <v>2.7565607366227369</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.86629697818036211</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="1">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.6230429576660612</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.3764614951634071</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>11.333333333333334</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="1">
         <v>1.4330730145071684</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>1.1852737310680663</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.188003778711145</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.82949760350723667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>10.666666666666666</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>1.6833510239178238</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.99119049521890701</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="1">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.4501521788346619</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.4954483103374887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>2.2862773390501512</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>0.95991495666097537</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="1">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.3580158139103302</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.3110988587512955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>1.361767039118863</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>1.1159673211518661</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="1">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.6041230680677083</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.72947087716572334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>12.666666666666666</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>1.904761904761904</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>1.0200464835996006</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="1">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3.1627026689277988</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.89309625328853148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>14.666666666666666</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="1">
         <v>1.1326328277799433</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="1">
         <v>1.3154027048137931</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="1">
+        <v>16.333333333333332</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.2513456166554775</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1.3477256784841076</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>13</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="1">
         <v>1.7441174903034833</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>0.7380756522329337</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.61866098733856967</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>14</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="1">
         <v>1.6732080782850249</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>1.3261054035826796</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.939468017185774</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.1519005873013197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>11.333333333333334</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <v>0.9289757539446355</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="1">
         <v>1.3207032008220587</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="1">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.5750937264843548</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.4141400959431707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>9.3333333333333339</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="1">
         <v>1.1574862582103322</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="1">
         <v>0.88978213046676524</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="1">
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2.076923076923078</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1.2662710163816628</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>8.6666666666666661</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <v>1.7138126885222844</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="1">
         <v>1.6903074867922554</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="1">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3.9502913155079669</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1.5335900359974415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>19</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <v>15.595318970739601</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="1">
         <v>5.9761321384199597</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1.215854100159526</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.3494846949865049</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>15</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="1">
         <v>4.9476951773710542</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="1">
         <v>2.4662790664020862</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="E15" s="1">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7.8558440484956646</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.76016049211038972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>12.666666666666666</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="1">
         <v>7.5578189544963683</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="1">
         <v>0.9978106137201922</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="1">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="F16" s="1">
+        <v>9.4850401366868979</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.94359579588374876</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>12.333333333333334</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>1.3115259357689653</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="1">
         <v>1.3094404124143892</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.5329246079273433</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.71151523815250417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>10.666666666666666</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>3.7858943397058855</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="1">
         <v>1.2543597209375743</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="1">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.291456485774108</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.4674520446260155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>8.3333333333333339</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>1.2046813942228607</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="1">
         <v>0.88067833762091485</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.0686418924693744</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.62449888802917219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>11.333333333333334</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>1.3944038335947619</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="1">
         <v>1.0227982070356558</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1.1290489924133555</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1.012904325153974</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>1.2707094800278349</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="1">
         <v>1.0839665898376547</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.5830728064240012</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.1842330187566394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>13</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>3.2864959109676417</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="1">
         <v>1.0105798950953571</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1.8499108288965453</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.1048370245896986</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>1.6004609991612</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="1">
         <v>1.1079880406330389</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+      <c r="E23" s="1">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.6666666666666901</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.9308262189197315</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>11</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>3.361450689665455</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="1">
         <v>1.4804180304568906</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+      <c r="E24" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.2777777777777772</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.2388294222347405</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>13.666666666666666</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>2.8600079257563986</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="1">
         <v>1.6806895973430971</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.81961843112540012</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1.7257784682298263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>10</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>1.0743034596233474</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="1">
         <v>0.63919456634856664</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2.8123414738301333</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2.2234254167032548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>12</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>1.0974589708533942</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="1">
         <v>3.3145880674979886</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+      <c r="E27" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F27" s="1">
+        <v>5.7898637740902483</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.2827966111102493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>12</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>1.3534203451842246</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="1">
         <v>1.2114491156638321</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+      <c r="E28" s="1">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.2287890938102168</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.77990209360913354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>14.666666666666666</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>2.0676879994034207</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="1">
         <v>2.7076353169210474</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1.7457431218879393</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1.7878373159561685</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>11</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>0.83178682659283154</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="1">
         <v>1.1653881222968314</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3.0549042011631404</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1.2721319098964701</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>12</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>2.4914972027256703</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="1">
         <v>1.1869447596463412</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="E31" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.0649528641315147</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.88807847694660147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>1.4658029059798141</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="1">
         <v>1.1275626244063839</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="1">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.0740395440368022</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.66531917779718741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>9.3333333333333339</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="1">
         <v>1.1101523466762657</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="1">
         <v>0.86327901433409759</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+      <c r="E33" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1.7075094191578077</v>
+      </c>
+      <c r="G33" s="1">
+        <v>4.9185175650571864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>22</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="1">
         <v>1.0084592982930833</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="1">
         <v>0.76269581588228863</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="1">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.9616463843166201</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.0626503861645744</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="1">
         <v>1.789442724190381</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="1">
         <v>0.8338675872479705</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="E35" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F35" s="1">
+        <v>4.44756359345297</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1.110991986211769</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>11</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="1">
         <v>0.96275793955006683</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="1">
         <v>1.2586238656320985</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+      <c r="E36" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1.5351886962545209</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1.6721231355489135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>11.666666666666666</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="1">
         <v>1.4294201689741999</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="1">
         <v>1.5437265846330797</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5.8707070668873964</v>
+      </c>
+      <c r="G37" s="1">
+        <v>7.6312558261317376</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="1">
         <v>4.4470573214821627</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="1">
         <v>8.7393742037808551</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+      <c r="E38" s="1">
+        <v>4</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2.6097787786768123</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2.498679383534288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>12.666666666666666</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="1">
         <v>2.1935872219977122</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="1">
         <v>0.93162237833334527</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="E39" s="1">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1">
+        <v>4.4288191794333587</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3.0398923883036795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>15</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="1">
         <v>0.98638201766327793</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="1">
         <v>1.1445584655980914</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+      <c r="E40" s="1">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2.2229281011392441</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2.0641513199680737</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="1">
         <v>12</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="1">
         <v>1.260941420793849</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="1">
         <v>0.83957020613622635</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+      <c r="E41" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1.2634466137520235</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.71455632969931293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>16.333333333333332</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <v>7.7309903583261033</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="1">
         <v>1.3258072781652084</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" s="1">
+        <v>6</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.0190114754278037</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1.6582603535953557</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>6</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <v>2.027443862383314</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="1">
         <v>1.5026849955938786</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.6171477538708823</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1.1366324986892129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="1">
         <v>10.333333333333334</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="1">
         <v>5.5895655683821763</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="1">
         <v>0.66403136670576879</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.8571428571428541</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1.9079185287399785</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="1">
         <v>6.666666666666667</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="1">
         <v>3.6375908937851347</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="1">
         <v>0.60080229966048526</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" s="1">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1.923076923076924</v>
+      </c>
+      <c r="G45" s="1">
+        <v>2.3704101277223235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="1">
         <v>8.3333333333333339</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="1">
         <v>1.8875951134000957</v>
       </c>
-      <c r="D46" s="4">
+      <c r="D46" s="1">
         <v>0.95977058204289067</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1.6795644194607287</v>
+      </c>
+      <c r="G46" s="1">
+        <v>0.95389259537803328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C47" s="4">
+      <c r="C47" s="1">
         <v>1.4655905930339701</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="1">
         <v>0.79708066105525399</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1.2293572636996477</v>
+      </c>
+      <c r="G47" s="1">
+        <v>0.60381351527908877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="1">
         <v>5.666666666666667</v>
       </c>
-      <c r="C48" s="4">
+      <c r="C48" s="1">
         <v>1.1105842583218859</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D48" s="1">
         <v>0.86815744699085828</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E48" s="1">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1.3325650628383543</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.64719662261905342</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="1">
         <v>6</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="1">
         <v>1.3405254742109707</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="1">
         <v>1.1596995085270665</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E49" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F49" s="1">
+        <v>11.113992681900275</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1.7512118901464631</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="1">
         <v>9</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="1">
         <v>1.4027985963289962</v>
       </c>
-      <c r="D50" s="4">
+      <c r="D50" s="1">
         <v>1.189767726685139</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E50" s="1">
+        <v>5</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2.4629627116326613</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0.59543363439924546</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="1">
         <v>3.6620545055120162</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="1">
         <v>1.0338624025342336</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1.3061473012170066</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1.2720085284495601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="1">
         <v>1.1248632492742137</v>
       </c>
-      <c r="D52" s="4">
+      <c r="D52" s="1">
         <v>1.4938633419196203</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E52" s="1">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>1.2680589189493174</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.74988494233316672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="1">
         <v>8</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="1">
         <v>3.1836743415313644</v>
       </c>
-      <c r="D53" s="4">
+      <c r="D53" s="1">
         <v>1.4254390111759714</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E53" s="1">
+        <v>6</v>
+      </c>
+      <c r="F53" s="1">
+        <v>5.0128668799229361</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1.3461558730738654</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>10</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="1">
         <v>3.0476663605141701</v>
       </c>
-      <c r="D54" s="4">
+      <c r="D54" s="1">
         <v>1.6706809592460456</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1.7315498528779725</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1.4678815858249359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="1">
         <v>15.333333333333334</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="1">
         <v>1.3426177385923794</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="1">
         <v>1.4202673686824656</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E55" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1.0811798054391777</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.85456948908667529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="1">
         <v>1.797726746278105</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="1">
         <v>1.7873857688571952</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E56" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F56" s="1">
+        <v>8.9671766130849324</v>
+      </c>
+      <c r="G56" s="1">
+        <v>2.3283250296591262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="1">
         <v>10.666666666666666</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="1">
         <v>3.8888265924092646</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="1">
         <v>2.867119125973137</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F57" s="1">
+        <v>7.3077425225026094</v>
+      </c>
+      <c r="G57" s="1">
+        <v>3.0082829763751899</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="1">
         <v>8.6666666666666661</v>
       </c>
-      <c r="C58" s="4">
+      <c r="C58" s="1">
         <v>9.9999999999999361</v>
       </c>
-      <c r="D58" s="4">
+      <c r="D58" s="1">
         <v>24.840594918167909</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E58" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2.7969371002682788</v>
+      </c>
+      <c r="G58" s="1">
+        <v>1.9773071216472586</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="1">
         <v>9.3333333333333339</v>
       </c>
-      <c r="C59" s="4">
+      <c r="C59" s="1">
         <v>2.2364586935568509</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="1">
         <v>5.5628414872796883</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E59" s="1">
+        <v>8</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2.1088717002205954</v>
+      </c>
+      <c r="G59" s="1">
+        <v>2.0659772350007417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="1">
         <v>6</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="1">
         <v>5.8297394351255196</v>
       </c>
-      <c r="D60" s="4">
+      <c r="D60" s="1">
         <v>1.328755841903595</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E60" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F60" s="1">
+        <v>1.9205719177443141</v>
+      </c>
+      <c r="G60" s="1">
+        <v>1.1452340235770755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>8</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="1">
         <v>1.9839151518948257</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="1">
         <v>0.79903596831361634</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E61" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2.3918796866427314</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0.78804944693806278</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="1">
         <v>20.495934556230228</v>
       </c>
-      <c r="D62" s="4">
+      <c r="D62" s="1">
         <v>1.0479156121878099</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E62" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2.6737365827463018</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0.69750459079105387</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="1">
         <v>8</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="1">
         <v>1.3456952432384472</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="1">
         <v>1.3998974518379395</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E63" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F63" s="1">
+        <v>12.220201853215675</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0.6988553041464981</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="1">
         <v>9.3333333333333339</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="1">
         <v>9.1097170156075791</v>
       </c>
-      <c r="D64" s="4">
+      <c r="D64" s="1">
         <v>1.0799570483602579</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E64" s="1">
+        <v>10</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.2161873611616867</v>
+      </c>
+      <c r="G64" s="1">
+        <v>2.7497983782772955</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="1">
         <v>6.666666666666667</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="1">
         <v>2.6184569606129164</v>
       </c>
-      <c r="D65" s="4">
+      <c r="D65" s="1">
         <v>0.85426369026724702</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E65" s="1">
+        <v>10</v>
+      </c>
+      <c r="F65" s="1">
+        <v>3.0966176864266601</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1.1281165054528932</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="1">
         <v>5.333333333333333</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="1">
         <v>3.9000674757995459</v>
       </c>
-      <c r="D66" s="4">
+      <c r="D66" s="1">
         <v>1.6634900325117206</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
+      <c r="E66" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2.3076923076923039</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.66092562358986406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>7</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="1">
         <v>1.9951349964433578</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="1">
         <v>1.3950767535839348</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A68" s="1" t="s">
+      <c r="E67" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F67" s="1">
+        <v>1.4660333322756627</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.77466273221423065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="1">
         <v>8</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="1">
         <v>0.90476190476190477</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="1">
         <v>1.1457438776869826</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E68" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1.5186527932039988</v>
+      </c>
+      <c r="G68" s="1">
+        <v>1.2518674556228833</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="1">
         <v>5.666666666666667</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="1">
         <v>1.7181283611832325</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="1">
         <v>0.74138393887794451</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E69" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F69" s="1">
+        <v>3.6167777207178555</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1.4593642743572881</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>4.333333333333333</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <v>0.81052359230511473</v>
       </c>
-      <c r="D70" s="4">
+      <c r="D70" s="1">
         <v>0.61761677844172613</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E70" s="1">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1.9025324749673316</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.8834736792076705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="1">
         <v>8</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <v>1.9107319335602739</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="1">
         <v>0.64917958052547042</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E71" s="1">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F71" s="1">
+        <v>3.2348737910140906</v>
+      </c>
+      <c r="G71" s="1">
+        <v>1.3805062760479965</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="1">
         <v>6.666666666666667</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="1">
         <v>2.5208017599075228</v>
       </c>
-      <c r="D72" s="4">
+      <c r="D72" s="1">
         <v>1.1873816828384189</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E72" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.3779743280283561</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1.7986536545545757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <v>2.8709964455486126</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="1">
         <v>1.3553996852238368</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E73" s="1">
+        <v>11.333333333333334</v>
+      </c>
+      <c r="F73" s="1">
+        <v>1.2166027799405283</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.97037207466939313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="1">
         <v>11</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <v>1.0517664076515008</v>
       </c>
-      <c r="D74" s="4">
+      <c r="D74" s="1">
         <v>0.69153722026204911</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E74" s="1">
+        <v>12.333333333333334</v>
+      </c>
+      <c r="F74" s="1">
+        <v>2.9104958642626042</v>
+      </c>
+      <c r="G74" s="1">
+        <v>1.5637430519687099</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <v>4.2132571839742035</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="1">
         <v>0.96634496461825803</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E75" s="1">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F75" s="1">
+        <v>2.1125618772976975</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.59793190379162864</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="1">
         <v>8.6666666666666661</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="1">
         <v>3.1239936138835311</v>
       </c>
-      <c r="D76" s="4">
+      <c r="D76" s="1">
         <v>0.94110203612931065</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E76" s="1">
+        <v>7</v>
+      </c>
+      <c r="F76" s="1">
+        <v>1.2548259626867819</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1.1747413730836724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="1">
         <v>2.6289553862768962</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="1">
         <v>2.3259942699772069</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E77" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1.4836993449070881</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1.2896609745990644</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="1">
         <v>7.333333333333333</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="1">
         <v>1.8368447859615435</v>
       </c>
-      <c r="D78" s="4">
+      <c r="D78" s="1">
         <v>0.71558526975615167</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="1" t="s">
+      <c r="E78" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F78" s="1">
+        <v>20.214599591138551</v>
+      </c>
+      <c r="G78" s="1">
+        <v>1.6569122197053425</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="1">
         <v>7</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="1">
         <v>1.5080595515237114</v>
       </c>
-      <c r="D79" s="4">
+      <c r="D79" s="1">
         <v>1.3353704349627973</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="1" t="s">
+      <c r="E79" s="1">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4.6757420911085434</v>
+      </c>
+      <c r="G79" s="1">
+        <v>8.1652060512078179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="1">
         <v>7</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C80" s="1">
         <v>5.8333333333333508</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D80" s="1">
         <v>0.62010840196650685</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80" s="1">
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="F80" s="1">
+        <v>2.8605328877372664</v>
+      </c>
+      <c r="G80" s="1">
+        <v>4.8756641960204146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="1">
         <v>8.3333333333333339</v>
       </c>
-      <c r="C81" s="4">
+      <c r="C81" s="1">
         <v>1.0133420088311875</v>
       </c>
-      <c r="D81" s="4">
+      <c r="D81" s="1">
         <v>2.2375595064882781</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F81" s="1">
+        <v>1.0315888902997283</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.65717124183705511</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="1">
         <v>6.666666666666667</v>
       </c>
-      <c r="C82" s="4">
+      <c r="C82" s="1">
         <v>1.2339053944782488</v>
       </c>
-      <c r="D82" s="4">
+      <c r="D82" s="1">
         <v>1.5189019843529274</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82" s="1">
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="F82" s="1">
+        <v>1.5947630641475332</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1.1505511781813962</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="1">
         <v>6.666666666666667</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C83" s="1">
         <v>1.279580317344754</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D83" s="1">
         <v>0.66995929484109407</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83" s="1">
+        <v>4.333333333333333</v>
+      </c>
+      <c r="F83" s="1">
+        <v>1.2326312688558738</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1.1171696661749071</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="1">
         <v>6.333333333333333</v>
       </c>
-      <c r="C84" s="4">
+      <c r="C84" s="1">
         <v>0.7114163732395089</v>
       </c>
-      <c r="D84" s="4">
+      <c r="D84" s="1">
         <v>0.6032119108142342</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84" s="1">
+        <v>9.6666666666666661</v>
+      </c>
+      <c r="F84" s="1">
+        <v>3.1373002399895937</v>
+      </c>
+      <c r="G84" s="1">
+        <v>1.5245633403277483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="1">
         <v>6.666666666666667</v>
       </c>
-      <c r="C85" s="4">
+      <c r="C85" s="1">
         <v>2.8819549582402377</v>
       </c>
-      <c r="D85" s="4">
+      <c r="D85" s="1">
         <v>1.9434690692561107</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F85" s="1">
+        <v>6.0987160283405171</v>
+      </c>
+      <c r="G85" s="1">
+        <v>3.5274021157255513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="1">
         <v>7</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C86" s="1">
         <v>1.9063958080043979</v>
       </c>
-      <c r="D86" s="4">
+      <c r="D86" s="1">
         <v>1.1748113185880433</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86" s="1">
+        <v>7</v>
+      </c>
+      <c r="F86" s="1">
+        <v>3.3113308926626064</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.85046005066345076</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="1">
         <v>7.333333333333333</v>
       </c>
-      <c r="C87" s="4">
+      <c r="C87" s="1">
         <v>2.2763702208504255</v>
       </c>
-      <c r="D87" s="4">
+      <c r="D87" s="1">
         <v>1.9329122029707182</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87" s="1">
+        <v>10</v>
+      </c>
+      <c r="F87" s="1">
+        <v>1.9341924215611521</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1.2886420800635359</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="1">
         <v>8</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C88" s="1">
         <v>12.847281096751464</v>
       </c>
-      <c r="D88" s="4">
+      <c r="D88" s="1">
         <v>1.0346533593538245</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1.2958919532759328</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1.2727138372072766</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="1">
         <v>4</v>
       </c>
-      <c r="C89" s="4">
+      <c r="C89" s="1">
         <v>3.9922640247121475</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D89" s="1">
         <v>1.4128864571197159</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="1" t="s">
+      <c r="E89" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F89" s="1">
+        <v>3.3892741829452877</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1.4106771270047169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="1">
         <v>6</v>
       </c>
-      <c r="C90" s="4">
+      <c r="C90" s="1">
         <v>1.0951338219781548</v>
       </c>
-      <c r="D90" s="4">
+      <c r="D90" s="1">
         <v>1.5678204823933977</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="1" t="s">
+      <c r="E90" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F90" s="1">
+        <v>1.2664745759201284</v>
+      </c>
+      <c r="G90" s="1">
+        <v>1.5429561876272087</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="1">
         <v>4.333333333333333</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C91" s="1">
         <v>8.4285714285714306</v>
       </c>
-      <c r="D91" s="4">
+      <c r="D91" s="1">
         <v>0.67826554852022602</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="E91" s="1">
+        <v>8</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2.0684295003473814</v>
+      </c>
+      <c r="G91" s="1">
+        <v>1.6368138489557307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="1">
         <v>5.666666666666667</v>
       </c>
-      <c r="C92" s="4">
+      <c r="C92" s="1">
         <v>2.4981758479876817</v>
       </c>
-      <c r="D92" s="4">
+      <c r="D92" s="1">
         <v>2.0057748591172797</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="1" t="s">
+      <c r="E92" s="1">
+        <v>7</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1.6876318513890363</v>
+      </c>
+      <c r="G92" s="1">
+        <v>1.8242890420232829</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="1">
         <v>4</v>
       </c>
-      <c r="C93" s="4">
+      <c r="C93" s="1">
         <v>2.0512481682183283</v>
       </c>
-      <c r="D93" s="4">
+      <c r="D93" s="1">
         <v>2.0678081746070256</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="1" t="s">
+      <c r="E93" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F93" s="1">
+        <v>1.2005684510029868</v>
+      </c>
+      <c r="G93" s="1">
+        <v>4.1231988810048339</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="1">
         <v>3.6666666666666665</v>
       </c>
-      <c r="C94" s="4">
+      <c r="C94" s="1">
         <v>0.8571428571428571</v>
       </c>
-      <c r="D94" s="4">
+      <c r="D94" s="1">
         <v>0.9099039393052234</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="1" t="s">
+      <c r="E94" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F94" s="1">
+        <v>3.6829475375170011</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2.0251652225421202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="1">
         <v>5.333333333333333</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="1">
         <v>1.5962036854066128</v>
       </c>
-      <c r="D95" s="4">
+      <c r="D95" s="1">
         <v>0.58790589791218173</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="E95" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3.1108550841912774</v>
+      </c>
+      <c r="G95" s="1">
+        <v>1.6013750726793226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C96" s="4">
+      <c r="C96" s="1">
         <v>2.1150579943903898</v>
       </c>
-      <c r="D96" s="4">
+      <c r="D96" s="1">
         <v>1.0718427865376099</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="1" t="s">
+      <c r="E96" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F96" s="1">
+        <v>1.4179807283472892</v>
+      </c>
+      <c r="G96" s="1">
+        <v>1.7374924003199721</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>5.666666666666667</v>
       </c>
-      <c r="C97" s="4">
+      <c r="C97" s="1">
         <v>1.3912820708080362</v>
       </c>
-      <c r="D97" s="4">
+      <c r="D97" s="1">
         <v>0.68271534028597558</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="1" t="s">
+      <c r="E97" s="1">
+        <v>8</v>
+      </c>
+      <c r="F97" s="1">
+        <v>1.9117749081267004</v>
+      </c>
+      <c r="G97" s="1">
+        <v>0.79653761069497753</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="1">
         <v>5</v>
       </c>
-      <c r="C98" s="4">
+      <c r="C98" s="1">
         <v>1.2099482069492082</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="1">
         <v>1.2295831400054362</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
+      <c r="E98" s="1">
+        <v>5</v>
+      </c>
+      <c r="F98" s="1">
+        <v>1.7551598447395276</v>
+      </c>
+      <c r="G98" s="1">
+        <v>0.72705405072361284</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="1">
         <v>7.666666666666667</v>
       </c>
-      <c r="C99" s="4">
+      <c r="C99" s="1">
         <v>10.256240841091643</v>
       </c>
-      <c r="D99" s="4">
+      <c r="D99" s="1">
         <v>0.99894290678222375</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A100" s="1" t="s">
+      <c r="E99" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F99" s="1">
+        <v>2.281293728406935</v>
+      </c>
+      <c r="G99" s="1">
+        <v>0.88941522600929923</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="1">
         <v>8</v>
       </c>
-      <c r="C100" s="4">
+      <c r="C100" s="1">
         <v>1.5982822307277291</v>
       </c>
-      <c r="D100" s="4">
+      <c r="D100" s="1">
         <v>2.5228758040205652</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="1" t="s">
+      <c r="E100" s="1">
+        <v>9</v>
+      </c>
+      <c r="F100" s="1">
+        <v>2.7344161720777116</v>
+      </c>
+      <c r="G100" s="1">
+        <v>1.6098032304911192</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="1">
         <v>10</v>
       </c>
-      <c r="C101" s="4">
+      <c r="C101" s="1">
         <v>7.2022076387587282</v>
       </c>
-      <c r="D101" s="4">
+      <c r="D101" s="1">
         <v>1.5186462904711495</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A102" s="1" t="s">
+      <c r="E101" s="1">
+        <v>8</v>
+      </c>
+      <c r="F101" s="1">
+        <v>1.8000210805018413</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1.1180532626031132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="1">
         <v>7</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="1">
         <v>6.2513445184704688</v>
       </c>
-      <c r="D102" s="4">
+      <c r="D102" s="1">
         <v>1.6202252162062363</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A103" s="1" t="s">
+      <c r="E102" s="1">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="F102" s="1">
+        <v>1.4757561795673475</v>
+      </c>
+      <c r="G102" s="1">
+        <v>1.5719419423282366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="1">
         <v>5.666666666666667</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="1">
         <v>1.8245584887598658</v>
       </c>
-      <c r="D103" s="4">
+      <c r="D103" s="1">
         <v>1.8468262805033158</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A104" s="1" t="s">
+      <c r="E103" s="1">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="F103" s="1">
+        <v>2.2757008553182065</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1.5229101550305237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="1">
         <v>4.333333333333333</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="1">
         <v>0.95336316693323953</v>
       </c>
-      <c r="D104" s="4">
+      <c r="D104" s="1">
         <v>0.90271608341844478</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A105" s="1" t="s">
+      <c r="E104" s="1">
+        <v>2</v>
+      </c>
+      <c r="F104" s="1">
+        <v>1.2339053944782485</v>
+      </c>
+      <c r="G104" s="1">
+        <v>0.84995664151604267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="1">
         <v>4</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="1">
         <v>1.732050807568877</v>
       </c>
-      <c r="D105" s="4">
+      <c r="D105" s="1">
         <v>0.82054696872576083</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A106" s="1" t="s">
+      <c r="E105" s="1">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="F105" s="1">
+        <v>3.4427553068093664</v>
+      </c>
+      <c r="G105" s="1">
+        <v>0.72191592118589842</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="1">
         <v>5</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="1">
         <v>2.4659848095803576</v>
       </c>
-      <c r="D106" s="4">
+      <c r="D106" s="1">
         <v>1.7956083952859678</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="1" t="s">
+      <c r="E106" s="1">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F106" s="1">
+        <v>2.6457513110645894</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1.4310673040058439</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="1">
         <v>1</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="1">
         <v>0.87287156094396956</v>
       </c>
-      <c r="D107" s="4">
+      <c r="D107" s="1">
         <v>0.6975732730850781</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A108" s="1" t="s">
+      <c r="E107" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.57735026918962584</v>
+      </c>
+      <c r="G107" s="1">
+        <v>0.57735026918962595</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="1">
         <v>1.0910894511799623</v>
       </c>
-      <c r="D108" s="4">
+      <c r="D108" s="1">
         <v>0.86493651394805082</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A109" s="1" t="s">
+      <c r="E108" s="1">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F108" s="1">
+        <v>1.3853254820679914</v>
+      </c>
+      <c r="G108" s="1">
+        <v>1.0425437953976326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="1">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C109" s="4">
+      <c r="C109" s="1">
         <v>0.98200287336465208</v>
       </c>
-      <c r="D109" s="4">
+      <c r="D109" s="1">
         <v>0.78649321049791854</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="1" t="s">
+      <c r="E109" s="1">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.68824720161168518</v>
+      </c>
+      <c r="G109" s="1">
+        <v>0.6606297813149643</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="1">
         <v>4</v>
       </c>
-      <c r="C110" s="4">
+      <c r="C110" s="1">
         <v>1.4184162865339505</v>
       </c>
-      <c r="D110" s="4">
+      <c r="D110" s="1">
         <v>1.8782991674111889</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A111" s="1" t="s">
+      <c r="E110" s="1">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F110" s="1">
+        <v>1.8548520670059345</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1.3838577406523622</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="1">
         <v>4.333333333333333</v>
       </c>
-      <c r="C111" s="4">
+      <c r="C111" s="1">
         <v>1.0383831705117121</v>
       </c>
-      <c r="D111" s="4">
+      <c r="D111" s="1">
         <v>1.1995435469246896</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A112" s="1" t="s">
+      <c r="E111" s="1">
+        <v>7</v>
+      </c>
+      <c r="F111" s="1">
+        <v>8.875203139603661</v>
+      </c>
+      <c r="G111" s="1">
+        <v>1.146064868765251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="1">
         <v>1.6666666666666667</v>
       </c>
-      <c r="C112" s="4">
+      <c r="C112" s="1">
         <v>0.83205029433784361</v>
       </c>
-      <c r="D112" s="4">
+      <c r="D112" s="1">
         <v>0.77858410760982544</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="1" t="s">
+      <c r="E112" s="1">
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F112" s="1">
+        <v>1.7457431218879396</v>
+      </c>
+      <c r="G112" s="1">
+        <v>0.7987837978203508</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="1">
         <v>2.6666666666666665</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C113" s="1">
         <v>0.85537920380144206</v>
       </c>
-      <c r="D113" s="4">
+      <c r="D113" s="1">
         <v>1.0624491657810915</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="1" t="s">
+      <c r="E113" s="1">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.70804457383299191</v>
+      </c>
+      <c r="G113" s="1">
+        <v>0.78127611278145337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="1">
         <v>4</v>
       </c>
-      <c r="C114" s="4">
+      <c r="C114" s="1">
         <v>1.9521843207154514</v>
       </c>
-      <c r="D114" s="4">
+      <c r="D114" s="1">
         <v>1.5915596136437309</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
+      <c r="E114" s="1">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F114" s="1">
+        <v>1.5186527932039984</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1.2096876892996313</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="1">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C115" s="4">
+      <c r="C115" s="1">
         <v>1.3527289154417448</v>
       </c>
-      <c r="D115" s="4">
+      <c r="D115" s="1">
         <v>1.9844293899584646</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="1" t="s">
+      <c r="E115" s="1">
+        <v>4</v>
+      </c>
+      <c r="F115" s="1">
+        <v>2.1192517713040715</v>
+      </c>
+      <c r="G115" s="1">
+        <v>1.029924650521131</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="1">
         <v>2.3333333333333335</v>
       </c>
-      <c r="C116" s="4">
+      <c r="C116" s="1">
         <v>1.1514402009400457</v>
       </c>
-      <c r="D116" s="4">
+      <c r="D116" s="1">
         <v>0.59638537533344671</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A117" s="1" t="s">
+      <c r="E116" s="1">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2.443388887126106</v>
+      </c>
+      <c r="G116" s="1">
+        <v>1.0455140904476621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="1">
         <v>5.333333333333333</v>
       </c>
-      <c r="C117" s="4">
+      <c r="C117" s="1">
         <v>2.3353931685402451</v>
       </c>
-      <c r="D117" s="4">
+      <c r="D117" s="1">
         <v>2.4131227469684218</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A118" s="1" t="s">
+      <c r="E117" s="1">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1.5118578920369097</v>
+      </c>
+      <c r="G117" s="1">
+        <v>1.0844858153981363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="1">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="1">
         <v>0.57735026918962573</v>
       </c>
-      <c r="D118" s="4">
+      <c r="D118" s="1">
         <v>0.57735026918962584</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A119" s="1" t="s">
+      <c r="E118" s="1">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F118" s="1">
+        <v>1.091089451179962</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1.0663372178998896</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="1">
         <v>2</v>
       </c>
-      <c r="C119" s="4">
+      <c r="C119" s="1">
         <v>0.6848329953982647</v>
       </c>
-      <c r="D119" s="4">
+      <c r="D119" s="1">
         <v>0.68435172897421015</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="1" t="s">
+      <c r="E119" s="1">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G119" s="1">
+        <v>0.98157231715072402</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="1">
         <v>5.333333333333333</v>
       </c>
-      <c r="C120" s="4">
+      <c r="C120" s="1">
         <v>1.6712770950226019</v>
       </c>
-      <c r="D120" s="4">
+      <c r="D120" s="1">
         <v>1.1175708519587504</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A121" s="1" t="s">
+      <c r="E120" s="1">
+        <v>2</v>
+      </c>
+      <c r="F120" s="1">
+        <v>2.1821789023599245</v>
+      </c>
+      <c r="G120" s="1">
+        <v>0.73362810603018824</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="1">
         <v>2.6666666666666665</v>
       </c>
-      <c r="C121" s="4">
+      <c r="C121" s="1">
         <v>0.80100187891481411</v>
       </c>
-      <c r="D121" s="4">
+      <c r="D121" s="1">
         <v>0.84872850200513272</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="1" t="s">
+      <c r="E121" s="1">
+        <v>2</v>
+      </c>
+      <c r="F121" s="1">
+        <v>2.0207259421636894</v>
+      </c>
+      <c r="G121" s="1">
+        <v>1.7074890626312114</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="1">
         <v>4.666666666666667</v>
       </c>
-      <c r="C122" s="4">
+      <c r="C122" s="1">
         <v>2.1428571428571446</v>
       </c>
-      <c r="D122" s="4">
+      <c r="D122" s="1">
         <v>1.3012809499948248</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="1" t="s">
+      <c r="E122" s="4">
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1.4045204148136883</v>
+      </c>
+      <c r="G122" s="1">
+        <v>0.74855911933616448</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="1">
         <v>3.3333333333333335</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C123" s="1">
         <v>2.5000000000000013</v>
       </c>
-      <c r="D123" s="4">
+      <c r="D123" s="1">
         <v>0.92138762824260434</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A124" s="1" t="s">
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>0.98674585923083147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="1">
         <v>5</v>
       </c>
-      <c r="C124" s="4">
+      <c r="C124" s="1">
         <v>5.2915026221291965</v>
       </c>
-      <c r="D124" s="4">
+      <c r="D124" s="1">
         <v>0.97827961650075645</v>
+      </c>
+      <c r="E124" s="1">
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F124" s="1">
+        <v>1.8543452998910614</v>
+      </c>
+      <c r="G124" s="1">
+        <v>0.76060531000690301</v>
       </c>
     </row>
   </sheetData>
